--- a/기획자료/dot_breeder_table.xlsx
+++ b/기획자료/dot_breeder_table.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D7388-6F61-4D94-AB58-49B6CEFDFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DFBFBC-4D6A-4E10-AAFB-DF9F34E913C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29130" yWindow="1815" windowWidth="28695" windowHeight="15435" xr2:uid="{3B541F13-3D62-40A9-9020-408986DAAD62}"/>
+    <workbookView xWindow="13530" yWindow="405" windowWidth="24225" windowHeight="17805" xr2:uid="{3B541F13-3D62-40A9-9020-408986DAAD62}"/>
   </bookViews>
   <sheets>
-    <sheet name="item_table" sheetId="1" r:id="rId1"/>
+    <sheet name="item_forest_table" sheetId="1" r:id="rId1"/>
+    <sheet name="item_ice_table" sheetId="4" r:id="rId2"/>
+    <sheet name="item_desert_table" sheetId="3" r:id="rId3"/>
+    <sheet name="item_volcano_table" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item_table!$B$2:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">item_desert_table!$B$2:$J$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item_forest_table!$B$2:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item_ice_table!$B$2:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">item_volcano_table!$B$2:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
   <si>
     <t>아이템이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>손톱 줄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핸드크림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +262,34 @@
   </si>
   <si>
     <t>아령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼지털이개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜰채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손톱 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츄루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로틴바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +768,7 @@
   <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,12 +832,18 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
       <c r="I3" s="2">
         <f>F3+G3+H3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -824,12 +860,18 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I48" si="0">F4+G4+H4</f>
-        <v>0</v>
+        <f t="shared" ref="I4:I6" si="0">F4+G4+H4</f>
+        <v>10</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -847,17 +889,17 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
       <c r="N5" s="9"/>
@@ -879,12 +921,18 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2"/>
       <c r="N6" s="11"/>
@@ -895,924 +943,555 @@
     </row>
     <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f>F7+G7+H7</f>
         <v>16</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J7" s="2"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F8+G8+H8</f>
+        <v>16</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>28</v>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F9+G9+H9</f>
+        <v>16</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
       <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <f>F11+G11+H11</f>
+        <v>22</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <f>F12+G12+H12</f>
+        <v>22</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <f>F13+G13+H13</f>
+        <v>22</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <f>F15+G15+H15</f>
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
+        <f>F16+G16+H16</f>
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3"/>
+        <f>F17+G17+H17</f>
+        <v>28</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>27</v>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
       <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3">
-        <v>4</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3">
-        <v>4</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="8"/>
-    </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4</v>
-      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4</v>
-      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="3">
-        <v>4</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="3">
-        <v>4</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I43" s="3"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4</v>
-      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I45" s="3"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I46" s="3"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4</v>
-      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I47" s="3"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="8"/>
     </row>
   </sheetData>
@@ -1821,4 +1500,1693 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D814372C-975B-485B-A433-69FE81C5E9C1}">
+  <dimension ref="B1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>F3+G3+H3</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I17" si="0">F4+G4+H4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f>F7+G7+H7</f>
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <f>F8+G8+H8</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <f>F9+G9+H9</f>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>90</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
+        <v>120</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:J26" xr:uid="{1D81930C-0296-46B1-A165-A60B73D003A4}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C25892-B6EF-4B6F-AA58-F0795B45323E}">
+  <dimension ref="B1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>F3+G3+H3</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I5" si="0">F4+G4+H4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I18" si="1">F6+G6+H6</f>
+        <v>90</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:J22" xr:uid="{1D81930C-0296-46B1-A165-A60B73D003A4}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8EB493-9EAE-4129-A16A-105A6D0522F8}">
+  <dimension ref="B1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>F3+G3+H3</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I18" si="0">F4+G4+H4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <f>F6+G6+H6</f>
+        <v>90</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f>F7+G7+H7</f>
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <f>F8+G8+H8</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <f>F9+G9+H9</f>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:J18" xr:uid="{1D81930C-0296-46B1-A165-A60B73D003A4}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/기획자료/dot_breeder_table.xlsx
+++ b/기획자료/dot_breeder_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\담비\Desktop\Dot-Breeder\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DFBFBC-4D6A-4E10-AAFB-DF9F34E913C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDF645A-74C3-4471-9955-32F67BC0C067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="405" windowWidth="24225" windowHeight="17805" xr2:uid="{3B541F13-3D62-40A9-9020-408986DAAD62}"/>
+    <workbookView xWindow="2385" yWindow="405" windowWidth="35370" windowHeight="17805" activeTab="1" xr2:uid="{3B541F13-3D62-40A9-9020-408986DAAD62}"/>
   </bookViews>
   <sheets>
     <sheet name="item_forest_table" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="63">
   <si>
     <t>아이템이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>프로틴바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -408,13 +412,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +785,799 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D81930C-0296-46B1-A165-A60B73D003A4}">
   <dimension ref="B1:R48"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>F3+G3+H3</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I6" si="0">F4+G4+H4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3">
+        <v>15</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f>F7+G7+H7</f>
+        <v>16</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <f>F8+G8+H8</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <f>F9+G9+H9</f>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <f>F11+G11+H11</f>
+        <v>22</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <f>F12+G12+H12</f>
+        <v>22</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <f>F13+G13+H13</f>
+        <v>22</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <f>F15+G15+H15</f>
+        <v>28</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
+        <f>F16+G16+H16</f>
+        <v>28</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <f>F17+G17+H17</f>
+        <v>28</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:J48" xr:uid="{1D81930C-0296-46B1-A165-A60B73D003A4}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D814372C-975B-485B-A433-69FE81C5E9C1}">
+  <dimension ref="B1:R26"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -818,6 +1627,9 @@
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="K2" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -846,6 +1658,9 @@
         <v>10</v>
       </c>
       <c r="J3" s="2"/>
+      <c r="K3" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -870,10 +1685,13 @@
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I6" si="0">F4+G4+H4</f>
+        <f t="shared" ref="I4:I17" si="0">F4+G4+H4</f>
         <v>10</v>
       </c>
       <c r="J4" s="2"/>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -902,6 +1720,9 @@
         <v>10</v>
       </c>
       <c r="J5" s="2"/>
+      <c r="K5" s="3">
+        <v>15</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -913,10 +1734,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -931,10 +1752,12 @@
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2"/>
+      <c r="K6" s="3">
+        <v>15</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -968,6 +1791,9 @@
         <v>16</v>
       </c>
       <c r="J7" s="2"/>
+      <c r="K7" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -996,6 +1822,9 @@
         <v>16</v>
       </c>
       <c r="J8" s="2"/>
+      <c r="K8" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -1024,16 +1853,19 @@
         <v>16</v>
       </c>
       <c r="J9" s="2"/>
+      <c r="K9" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1048,19 +1880,22 @@
         <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="K10" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -1075,20 +1910,23 @@
         <v>6</v>
       </c>
       <c r="I11" s="3">
-        <f>F11+G11+H11</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1103,20 +1941,23 @@
         <v>6</v>
       </c>
       <c r="I12" s="3">
-        <f>F12+G12+H12</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -1131,20 +1972,23 @@
         <v>10</v>
       </c>
       <c r="I13" s="3">
-        <f>F13+G13+H13</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -1159,747 +2003,12 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3">
-        <f>F15+G15+H15</f>
-        <v>28</v>
-      </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3">
-        <v>8</v>
-      </c>
-      <c r="I16" s="3">
-        <f>F16+G16+H16</f>
-        <v>28</v>
-      </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3">
-        <f>F17+G17+H17</f>
-        <v>28</v>
-      </c>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3">
-        <v>50</v>
-      </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:J48" xr:uid="{1D81930C-0296-46B1-A165-A60B73D003A4}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D814372C-975B-485B-A433-69FE81C5E9C1}">
-  <dimension ref="B1:R26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="45" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <f>F3+G3+H3</f>
-        <v>10</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I17" si="0">F4+G4+H4</f>
-        <v>10</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <f>F7+G7+H7</f>
-        <v>16</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <f>F8+G8+H8</f>
-        <v>16</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2">
-        <f>F9+G9+H9</f>
-        <v>16</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3">
-        <v>90</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -1928,6 +2037,9 @@
         <v>28</v>
       </c>
       <c r="J15" s="8"/>
+      <c r="K15" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
@@ -1956,8 +2068,11 @@
         <v>28</v>
       </c>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1984,8 +2099,11 @@
         <v>28</v>
       </c>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2011,8 +2129,11 @@
         <v>120</v>
       </c>
       <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2023,7 +2144,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2034,7 +2155,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2045,7 +2166,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2056,7 +2177,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2067,7 +2188,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2078,7 +2199,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2089,7 +2210,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2679,7 +2800,7 @@
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
